--- a/STI/STI_12.2017.xlsx
+++ b/STI/STI_12.2017.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13199" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13199" uniqueCount="857">
   <si>
     <t>id</t>
   </si>
@@ -2597,6 +2597,9 @@
   </si>
   <si>
     <t>hiv206f</t>
+  </si>
+  <si>
+    <t>hiv201a</t>
   </si>
 </sst>
 </file>
@@ -2950,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFD3353-0386-4397-9755-AEAEE47515EF}">
   <dimension ref="A1:FT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5072,7 +5075,7 @@
         <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
       <c r="C5" t="s">
         <v>176</v>
